--- a/academias/Programación - Estadisticos 20211.xlsx
+++ b/academias/Programación - Estadisticos 20211.xlsx
@@ -568,28 +568,28 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>58.33</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>41.67</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>8.5</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>41.67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -638,28 +638,28 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>16.67</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>6.8</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>16.67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -894,13 +894,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -958,13 +958,13 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1208,28 +1208,28 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>58.33</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>41.67</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>8.5</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>41.67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1278,28 +1278,28 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>16.67</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>6.8</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>16.67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
